--- a/data/trans_camb/P16B97-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Edad-trans_camb.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 0,0</t>
+          <t>-66,88; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 0,0</t>
+          <t>-43,17; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 0,0</t>
+          <t>-25,75; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 0,0</t>
+          <t>-39,74; 0,0</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 0,0</t>
+          <t>-66,88; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,17 +730,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 0,0</t>
+          <t>-43,17; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 0,0</t>
+          <t>-25,75; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 0,0</t>
+          <t>-39,74; 0,0</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 5,99</t>
+          <t>-22,02; 5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,93</t>
+          <t>0,0; 20,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 6,02</t>
+          <t>-11,15; 6,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,25</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 6,4</t>
+          <t>-22,89; 5,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,89</t>
+          <t>0,0; 25,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 6,43</t>
+          <t>-11,29; 6,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,99</t>
+          <t>0,0; 13,93</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 0,0</t>
+          <t>-13,05; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 0,0</t>
+          <t>-9,32; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,0</t>
+          <t>-6,46; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-3,85; 0,0</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 0,0</t>
+          <t>-13,05; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 0,0</t>
+          <t>-9,32; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,0</t>
+          <t>-6,46; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-3,85; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,0</t>
+          <t>-6,14; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,0</t>
+          <t>-6,77; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,0</t>
+          <t>-2,42; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,0</t>
+          <t>-4,09; 0,0</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,0</t>
+          <t>-6,14; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,0</t>
+          <t>-6,77; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,0</t>
+          <t>-2,42; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,0</t>
+          <t>-4,09; 0,0</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 9,69</t>
+          <t>-5,18; 12,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,53</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,85</t>
+          <t>-3,11; 3,26</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1510,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 10,92</t>
+          <t>-5,22; 13,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,98</t>
+          <t>0,0; 7,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,06</t>
+          <t>-3,12; 3,43</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,1</t>
+          <t>-1,49; 3,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,19</t>
+          <t>-2,93; 2,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,72</t>
+          <t>-1,17; 1,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,01</t>
+          <t>-2,23; 1,28</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,21</t>
+          <t>-1,5; 3,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,25</t>
+          <t>-2,96; 2,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,75</t>
+          <t>-1,17; 1,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,03</t>
+          <t>-2,24; 1,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B97-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 0,0</t>
+          <t>-57,95; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 0,0</t>
+          <t>-66,27; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 0,0</t>
+          <t>-51,33; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 0,0</t>
+          <t>-21,61; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 0,0</t>
+          <t>-44,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 0,0</t>
+          <t>-57,95; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 0,0</t>
+          <t>-66,27; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,17 +730,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 0,0</t>
+          <t>-51,33; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 0,0</t>
+          <t>-21,61; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 0,0</t>
+          <t>-44,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 5,29</t>
+          <t>-21,89; 5,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,49</t>
+          <t>0,0; 21,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 6,01</t>
+          <t>-11,42; 5,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,23</t>
+          <t>0,0; 15,35</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 5,69</t>
+          <t>-22,16; 5,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,77</t>
+          <t>0,0; 27,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,36</t>
+          <t>-11,61; 6,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,93</t>
+          <t>0,0; 18,13</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 0,0</t>
+          <t>-13,38; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,0</t>
+          <t>-10,71; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 0,0</t>
+          <t>-7,02; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,0</t>
+          <t>-4,49; 0,0</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 0,0</t>
+          <t>-13,38; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,0</t>
+          <t>-10,71; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 0,0</t>
+          <t>-7,02; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,0</t>
+          <t>-4,49; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,0</t>
+          <t>-6,18; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,0</t>
+          <t>-9,87; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-2,5; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,0</t>
+          <t>-5,51; 0,0</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,0</t>
+          <t>-6,18; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,0</t>
+          <t>-9,87; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-2,5; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,0</t>
+          <t>-5,51; 0,0</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,88</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 12,32</t>
+          <t>-5,1; 9,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,26</t>
+          <t>-3,08; 3,66</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,12</t>
+          <t>0,0; 12,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 13,59</t>
+          <t>-5,15; 11,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,03</t>
+          <t>0,0; 6,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,43</t>
+          <t>-3,12; 3,82</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,32</t>
+          <t>-1,54; 3,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,51</t>
+          <t>-2,97; 1,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,8</t>
+          <t>-1,21; 1,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,28</t>
+          <t>-2,09; 1,28</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,44</t>
+          <t>-1,54; 3,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,58</t>
+          <t>-2,99; 1,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,84</t>
+          <t>-1,21; 1,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,3</t>
+          <t>-2,11; 1,31</t>
         </is>
       </c>
     </row>
